--- a/Data/F022.COL.TIP.D089.US.Z.D.xlsx
+++ b/Data/F022.COL.TIP.D089.US.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5457"/>
+  <dimension ref="A1:C5458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93135,6 +93135,23 @@
         </is>
       </c>
     </row>
+    <row r="5458">
+      <c r="A5458" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B5458" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="C5458" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.COL.TIP.D089.US.Z.D.xlsx
+++ b/Data/F022.COL.TIP.D089.US.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5458"/>
+  <dimension ref="A1:C5461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93152,6 +93152,57 @@
         </is>
       </c>
     </row>
+    <row r="5459">
+      <c r="A5459" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B5459" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C5459" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5460">
+      <c r="A5460" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B5460" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C5460" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5461">
+      <c r="A5461" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B5461" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="C5461" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.COL.TIP.D089.US.Z.D.xlsx
+++ b/Data/F022.COL.TIP.D089.US.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5463"/>
+  <dimension ref="A1:C5464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93237,6 +93237,23 @@
         </is>
       </c>
     </row>
+    <row r="5464">
+      <c r="A5464" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B5464" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="C5464" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.COL.TIP.D089.US.Z.D.xlsx
+++ b/Data/F022.COL.TIP.D089.US.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5468"/>
+  <dimension ref="A1:C5469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93322,6 +93322,23 @@
         </is>
       </c>
     </row>
+    <row r="5469">
+      <c r="A5469" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B5469" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="C5469" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.COL.TIP.D089.US.Z.D.xlsx
+++ b/Data/F022.COL.TIP.D089.US.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5470"/>
+  <dimension ref="A1:C5471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93347,10 +93347,27 @@
       </c>
       <c r="B5470" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="C5470" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5471">
+      <c r="A5471" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B5471" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C5471" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
